--- a/data/trans_orig/P36B08_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E21C6BE-7289-4C2A-A1C2-761BD1C88464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{178A6E38-8549-45F5-82DD-982AEEF548FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5338B184-F432-44DD-95F2-F8384761472F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3E89674-19CB-4A1A-9C1C-547E26B2F277}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,10 +104,10 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
@@ -134,28 +134,28 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,388 +167,388 @@
     <t>85,96%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DD66E-4B3B-4D65-8E6E-745BA11CB248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF4B4F0-414B-4110-A899-EA604D800E8A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1568,10 +1568,10 @@
         <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -1580,13 +1580,13 @@
         <v>82821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>93775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -1616,13 +1616,13 @@
         <v>18322</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -1631,13 +1631,13 @@
         <v>112097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1705,13 +1705,13 @@
         <v>639474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>999</v>
@@ -1720,13 +1720,13 @@
         <v>839970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1591</v>
@@ -1735,13 +1735,13 @@
         <v>1479444</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1756,13 @@
         <v>43390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -1771,13 +1771,13 @@
         <v>19873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -1786,13 +1786,13 @@
         <v>63263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
         <v>44519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -1822,13 +1822,13 @@
         <v>13331</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -1837,13 +1837,13 @@
         <v>57850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1899,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1911,13 +1911,13 @@
         <v>849424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>1506</v>
@@ -1926,13 +1926,13 @@
         <v>1112163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>2378</v>
@@ -1941,13 +1941,13 @@
         <v>1961587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>33685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -1977,13 +1977,13 @@
         <v>20127</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -1992,13 +1992,13 @@
         <v>53812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2013,13 @@
         <v>80382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -2028,13 +2028,13 @@
         <v>17341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -2043,13 +2043,13 @@
         <v>97723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>2923723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>5163</v>
@@ -2132,28 +2132,28 @@
         <v>3674887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>8039</v>
       </c>
       <c r="N24" s="7">
-        <v>6598612</v>
+        <v>6598611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>164686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>105</v>
@@ -2183,13 +2183,13 @@
         <v>68346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -2198,10 +2198,10 @@
         <v>233032</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>162</v>
@@ -2249,7 +2249,7 @@
         <v>350150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>169</v>
@@ -2297,7 +2297,7 @@
         <v>8725</v>
       </c>
       <c r="N27" s="7">
-        <v>7181794</v>
+        <v>7181793</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
